--- a/semester_task/futasi_idok.xlsx
+++ b/semester_task/futasi_idok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\strem\Desktop\parallel\semester_task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98A0D7D-8BF6-442F-92DC-BDA6F5B00C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022E9595-091F-4A9D-93FB-61ABBE49BCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{BEDB4233-2E16-446E-8DC9-2AD41BDC8D91}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="General\ &quot;ms&quot;"/>
+    <numFmt numFmtId="164" formatCode="General\ &quot;ms&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -100,7 +100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -198,8 +198,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -208,29 +209,15 @@
             <c:v>2 szál</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Munka1!$D$1:$Q$1</c:f>
@@ -333,7 +320,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-72AD-4E62-A062-41F6FFAB33A6}"/>
@@ -347,29 +333,15 @@
             <c:v>3 szál</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Munka1!$D$1:$Q$1</c:f>
@@ -472,7 +444,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-72AD-4E62-A062-41F6FFAB33A6}"/>
@@ -486,29 +457,15 @@
             <c:v>4 szál</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Munka1!$D$1:$Q$1</c:f>
@@ -611,7 +568,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-72AD-4E62-A062-41F6FFAB33A6}"/>
@@ -625,29 +581,15 @@
             <c:v>GPU</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Munka1!$D$1:$Q$1</c:f>
@@ -750,7 +692,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-72AD-4E62-A062-41F6FFAB33A6}"/>
@@ -764,29 +705,15 @@
             <c:v>1 szál</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Munka1!$D$1:$Q$1</c:f>
@@ -889,7 +816,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-72AD-4E62-A062-41F6FFAB33A6}"/>
@@ -904,11 +830,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="162779216"/>
         <c:axId val="1961029472"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="162779216"/>
         <c:scaling>
@@ -916,6 +841,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Részecskék száma (db)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -981,6 +961,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Futási idő</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General\ &quot;ms&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1015,6 +1050,7 @@
         <c:crossAx val="162779216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2003,7 +2039,7 @@
   <dimension ref="C1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
